--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>2839.602578460053</v>
+        <v>9.607044855781778</v>
       </c>
       <c r="R2">
-        <v>25556.42320614048</v>
+        <v>86.46340370203599</v>
       </c>
       <c r="S2">
-        <v>0.2808975821868785</v>
+        <v>0.01023308149714291</v>
       </c>
       <c r="T2">
-        <v>0.2808975821868784</v>
+        <v>0.01023308149714291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>36.00283926689533</v>
+        <v>53.15666711055812</v>
       </c>
       <c r="R3">
-        <v>324.025553402058</v>
+        <v>478.410003995023</v>
       </c>
       <c r="S3">
-        <v>0.003561452781684032</v>
+        <v>0.05662058570815038</v>
       </c>
       <c r="T3">
-        <v>0.003561452781684032</v>
+        <v>0.05662058570815038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>207.488472214322</v>
+        <v>306.3479400891737</v>
       </c>
       <c r="R4">
-        <v>1867.396249928898</v>
+        <v>2757.131460802563</v>
       </c>
       <c r="S4">
-        <v>0.02052505890041129</v>
+        <v>0.326310898353692</v>
       </c>
       <c r="T4">
-        <v>0.02052505890041129</v>
+        <v>0.3263108983536921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>2343.472247542844</v>
+        <v>5.369960359757777</v>
       </c>
       <c r="R5">
-        <v>21091.2502278856</v>
+        <v>48.32964323781999</v>
       </c>
       <c r="S5">
-        <v>0.2318196543594579</v>
+        <v>0.005719890228758228</v>
       </c>
       <c r="T5">
-        <v>0.2318196543594578</v>
+        <v>0.005719890228758229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>29.71248698487611</v>
@@ -818,10 +818,10 @@
         <v>267.4123828638849</v>
       </c>
       <c r="S6">
-        <v>0.002939202062331205</v>
+        <v>0.03164868129204681</v>
       </c>
       <c r="T6">
-        <v>0.002939202062331204</v>
+        <v>0.03164868129204681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>171.2364540051316</v>
@@ -880,10 +880,10 @@
         <v>1541.128086046185</v>
       </c>
       <c r="S7">
-        <v>0.01693895697840266</v>
+        <v>0.1823949628029173</v>
       </c>
       <c r="T7">
-        <v>0.01693895697840266</v>
+        <v>0.1823949628029174</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>4127.583124834347</v>
+        <v>9.458169511162668</v>
       </c>
       <c r="R8">
-        <v>37148.24812350912</v>
+        <v>85.12352560046399</v>
       </c>
       <c r="S8">
-        <v>0.4083064752920808</v>
+        <v>0.01007450479043734</v>
       </c>
       <c r="T8">
-        <v>0.4083064752920806</v>
+        <v>0.01007450479043734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
-        <v>52.33292606909466</v>
+        <v>52.33292606909468</v>
       </c>
       <c r="R9">
-        <v>470.9963346218519</v>
+        <v>470.996334621852</v>
       </c>
       <c r="S9">
-        <v>0.005176848518550587</v>
+        <v>0.05574316613362182</v>
       </c>
       <c r="T9">
-        <v>0.005176848518550586</v>
+        <v>0.05574316613362183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>301.600626441868</v>
@@ -1066,10 +1066,10 @@
         <v>2714.405637976812</v>
       </c>
       <c r="S10">
-        <v>0.02983476892020312</v>
+        <v>0.321254229193233</v>
       </c>
       <c r="T10">
-        <v>0.02983476892020312</v>
+        <v>0.3212542291932332</v>
       </c>
     </row>
   </sheetData>
